--- a/log_5y.xlsx
+++ b/log_5y.xlsx
@@ -6677,9 +6677,15 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="log" displayName="log" ref="A1:G879" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G879"/>
-  <sortState ref="A2:G879">
-    <sortCondition descending="1" ref="F2:F879"/>
+  <autoFilter ref="A1:G879">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="London: True"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A9:G877">
+    <sortCondition descending="1" ref="F1:F879"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="6"/>
@@ -7077,7 +7083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G879"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -7114,7 +7120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1114</v>
       </c>
@@ -7137,7 +7143,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1721</v>
       </c>
@@ -7160,7 +7166,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1684</v>
       </c>
@@ -7183,7 +7189,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1049</v>
       </c>
@@ -7206,7 +7212,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1361</v>
       </c>
@@ -7229,7 +7235,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>1814</v>
       </c>
@@ -7252,7 +7258,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>1001</v>
       </c>
@@ -7298,7 +7304,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1399</v>
       </c>
@@ -7321,7 +7327,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>1101</v>
       </c>
@@ -7344,7 +7350,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>1799</v>
       </c>
@@ -7367,7 +7373,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>1700</v>
       </c>
@@ -7390,7 +7396,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>1676</v>
       </c>
@@ -7413,7 +7419,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>1855</v>
       </c>
@@ -7436,7 +7442,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>1976</v>
       </c>
@@ -7459,7 +7465,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>1637</v>
       </c>
@@ -7505,7 +7511,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>1798</v>
       </c>
@@ -7528,7 +7534,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>1937</v>
       </c>
@@ -7551,7 +7557,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>915</v>
       </c>
@@ -7574,7 +7580,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>1367</v>
       </c>
@@ -7597,7 +7603,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>692</v>
       </c>
@@ -7620,7 +7626,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>1401</v>
       </c>
@@ -7643,7 +7649,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>1569</v>
       </c>
@@ -7666,7 +7672,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>1590</v>
       </c>
@@ -7689,7 +7695,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>1933</v>
       </c>
@@ -7712,7 +7718,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>669</v>
       </c>
@@ -7735,7 +7741,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>1257</v>
       </c>
@@ -7758,7 +7764,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>1890</v>
       </c>
@@ -7781,7 +7787,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>873</v>
       </c>
@@ -7804,7 +7810,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>1619</v>
       </c>
@@ -7827,7 +7833,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>1808</v>
       </c>
@@ -7850,7 +7856,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>1398</v>
       </c>
@@ -7873,7 +7879,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>760</v>
       </c>
@@ -7896,7 +7902,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>1598</v>
       </c>
@@ -7919,7 +7925,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>1505</v>
       </c>
@@ -7942,7 +7948,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>1824</v>
       </c>
@@ -7965,7 +7971,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>1771</v>
       </c>
@@ -7988,7 +7994,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>1801</v>
       </c>
@@ -8011,7 +8017,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>1704</v>
       </c>
@@ -8034,7 +8040,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>1697</v>
       </c>
@@ -8057,7 +8063,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>1892</v>
       </c>
@@ -8080,7 +8086,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>849</v>
       </c>
@@ -8103,7 +8109,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>961</v>
       </c>
@@ -8126,7 +8132,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>1441</v>
       </c>
@@ -8149,7 +8155,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>1899</v>
       </c>
@@ -8172,7 +8178,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>1885</v>
       </c>
@@ -8195,7 +8201,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>1703</v>
       </c>
@@ -8218,7 +8224,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>1708</v>
       </c>
@@ -8241,7 +8247,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>1478</v>
       </c>
@@ -8264,7 +8270,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>1656</v>
       </c>
@@ -8287,7 +8293,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>1739</v>
       </c>
@@ -8310,7 +8316,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>1816</v>
       </c>
@@ -8333,7 +8339,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>1725</v>
       </c>
@@ -8356,7 +8362,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>1716</v>
       </c>
@@ -8379,7 +8385,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>1995</v>
       </c>
@@ -8402,7 +8408,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>1072</v>
       </c>
@@ -8425,7 +8431,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>1519</v>
       </c>
@@ -8448,7 +8454,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>1036</v>
       </c>
@@ -8471,7 +8477,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>982</v>
       </c>
@@ -8517,7 +8523,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>865</v>
       </c>
@@ -8540,7 +8546,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>1570</v>
       </c>
@@ -8563,7 +8569,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>1215</v>
       </c>
@@ -8586,7 +8592,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>1629</v>
       </c>
@@ -8609,7 +8615,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>1764</v>
       </c>
@@ -8632,7 +8638,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>1528</v>
       </c>
@@ -8655,7 +8661,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>1354</v>
       </c>
@@ -8678,7 +8684,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>1092</v>
       </c>
@@ -8701,7 +8707,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>1284</v>
       </c>
@@ -8724,7 +8730,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>1915</v>
       </c>
@@ -8747,7 +8753,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>1583</v>
       </c>
@@ -8770,7 +8776,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>2010</v>
       </c>
@@ -8793,7 +8799,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>1475</v>
       </c>
@@ -8816,7 +8822,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>1958</v>
       </c>
@@ -8839,7 +8845,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>1951</v>
       </c>
@@ -8862,7 +8868,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>1652</v>
       </c>
@@ -8885,7 +8891,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>1918</v>
       </c>
@@ -8908,7 +8914,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>830</v>
       </c>
@@ -8931,7 +8937,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>1587</v>
       </c>
@@ -8954,7 +8960,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>1529</v>
       </c>
@@ -8977,7 +8983,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>1352</v>
       </c>
@@ -9000,7 +9006,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>1392</v>
       </c>
@@ -9023,7 +9029,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>700</v>
       </c>
@@ -9046,7 +9052,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>1758</v>
       </c>
@@ -9069,7 +9075,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>1447</v>
       </c>
@@ -9092,7 +9098,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>878</v>
       </c>
@@ -9115,7 +9121,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>1508</v>
       </c>
@@ -9138,7 +9144,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>1385</v>
       </c>
@@ -9161,7 +9167,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>1379</v>
       </c>
@@ -9184,7 +9190,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>1433</v>
       </c>
@@ -9207,7 +9213,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>1803</v>
       </c>
@@ -9230,7 +9236,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>1346</v>
       </c>
@@ -9253,7 +9259,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>1501</v>
       </c>
@@ -9276,7 +9282,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>972</v>
       </c>
@@ -9299,7 +9305,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>2011</v>
       </c>
@@ -9322,7 +9328,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>1515</v>
       </c>
@@ -9345,7 +9351,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>1435</v>
       </c>
@@ -9368,7 +9374,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>628</v>
       </c>
@@ -9391,7 +9397,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>1872</v>
       </c>
@@ -9414,7 +9420,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>1397</v>
       </c>
@@ -9437,7 +9443,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>1733</v>
       </c>
@@ -9460,7 +9466,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>1471</v>
       </c>
@@ -9483,7 +9489,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>1424</v>
       </c>
@@ -9506,7 +9512,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>922</v>
       </c>
@@ -9529,7 +9535,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>1381</v>
       </c>
@@ -9552,7 +9558,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>740</v>
       </c>
@@ -9575,7 +9581,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>1411</v>
       </c>
@@ -9598,7 +9604,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>1743</v>
       </c>
@@ -9621,7 +9627,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>1078</v>
       </c>
@@ -9644,7 +9650,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>941</v>
       </c>
@@ -9667,7 +9673,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>659</v>
       </c>
@@ -9690,7 +9696,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>1864</v>
       </c>
@@ -9713,7 +9719,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>1678</v>
       </c>
@@ -9736,7 +9742,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>1504</v>
       </c>
@@ -9759,7 +9765,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>789</v>
       </c>
@@ -9782,7 +9788,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>1427</v>
       </c>
@@ -9805,7 +9811,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>1972</v>
       </c>
@@ -9828,7 +9834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>2017</v>
       </c>
@@ -9851,7 +9857,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>1431</v>
       </c>
@@ -9874,7 +9880,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>1982</v>
       </c>
@@ -9897,7 +9903,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>1138</v>
       </c>
@@ -9920,7 +9926,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>1734</v>
       </c>
@@ -9943,7 +9949,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>1911</v>
       </c>
@@ -9966,7 +9972,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>1449</v>
       </c>
@@ -9989,7 +9995,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>1451</v>
       </c>
@@ -10012,7 +10018,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>1896</v>
       </c>
@@ -10035,7 +10041,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>987</v>
       </c>
@@ -10058,7 +10064,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>1946</v>
       </c>
@@ -10081,7 +10087,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>1726</v>
       </c>
@@ -10104,7 +10110,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>1831</v>
       </c>
@@ -10127,7 +10133,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>1966</v>
       </c>
@@ -10150,7 +10156,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>1455</v>
       </c>
@@ -10173,7 +10179,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>1761</v>
       </c>
@@ -10196,7 +10202,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>1576</v>
       </c>
@@ -10219,7 +10225,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>1893</v>
       </c>
@@ -10242,7 +10248,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>1984</v>
       </c>
@@ -10265,7 +10271,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>1426</v>
       </c>
@@ -10288,7 +10294,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>1340</v>
       </c>
@@ -10311,7 +10317,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>1457</v>
       </c>
@@ -10334,7 +10340,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>1465</v>
       </c>
@@ -10357,7 +10363,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>1573</v>
       </c>
@@ -10380,7 +10386,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>1711</v>
       </c>
@@ -10403,7 +10409,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>1029</v>
       </c>
@@ -10426,7 +10432,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>1391</v>
       </c>
@@ -10449,7 +10455,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>1888</v>
       </c>
@@ -10472,7 +10478,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>1307</v>
       </c>
@@ -10495,7 +10501,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>1322</v>
       </c>
@@ -10518,7 +10524,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>1139</v>
       </c>
@@ -10541,7 +10547,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>812</v>
       </c>
@@ -10564,7 +10570,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>1993</v>
       </c>
@@ -10587,7 +10593,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>2018</v>
       </c>
@@ -10610,7 +10616,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>1231</v>
       </c>
@@ -10633,7 +10639,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>1043</v>
       </c>
@@ -10656,7 +10662,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>1096</v>
       </c>
@@ -10679,7 +10685,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>1417</v>
       </c>
@@ -10702,7 +10708,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>1227</v>
       </c>
@@ -10725,7 +10731,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>1499</v>
       </c>
@@ -10748,7 +10754,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>1374</v>
       </c>
@@ -10771,7 +10777,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>733</v>
       </c>
@@ -10794,7 +10800,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>857</v>
       </c>
@@ -10817,7 +10823,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>1232</v>
       </c>
@@ -10840,7 +10846,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>1450</v>
       </c>
@@ -10863,7 +10869,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>901</v>
       </c>
@@ -10886,7 +10892,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>1483</v>
       </c>
@@ -10909,7 +10915,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>1574</v>
       </c>
@@ -10932,7 +10938,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>1828</v>
       </c>
@@ -10955,7 +10961,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>1657</v>
       </c>
@@ -10978,7 +10984,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>988</v>
       </c>
@@ -11001,7 +11007,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>1462</v>
       </c>
@@ -11024,7 +11030,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>1579</v>
       </c>
@@ -11047,7 +11053,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>660</v>
       </c>
@@ -11070,7 +11076,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>1105</v>
       </c>
@@ -11093,7 +11099,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>1881</v>
       </c>
@@ -11116,7 +11122,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>1523</v>
       </c>
@@ -11139,7 +11145,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>903</v>
       </c>
@@ -11185,7 +11191,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>1608</v>
       </c>
@@ -11208,7 +11214,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>920</v>
       </c>
@@ -11231,7 +11237,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>1560</v>
       </c>
@@ -11254,7 +11260,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>632</v>
       </c>
@@ -11277,7 +11283,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>1645</v>
       </c>
@@ -11300,7 +11306,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>1188</v>
       </c>
@@ -11323,7 +11329,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>1116</v>
       </c>
@@ -11346,7 +11352,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>780</v>
       </c>
@@ -11369,7 +11375,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>2004</v>
       </c>
@@ -11392,7 +11398,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>1171</v>
       </c>
@@ -11415,7 +11421,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>1609</v>
       </c>
@@ -11438,7 +11444,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>1389</v>
       </c>
@@ -11461,7 +11467,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>670</v>
       </c>
@@ -11484,7 +11490,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>1904</v>
       </c>
@@ -11507,7 +11513,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>1829</v>
       </c>
@@ -11530,7 +11536,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>1488</v>
       </c>
@@ -11553,7 +11559,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>766</v>
       </c>
@@ -11576,7 +11582,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>1237</v>
       </c>
@@ -11599,7 +11605,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>1356</v>
       </c>
@@ -11622,7 +11628,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>1991</v>
       </c>
@@ -11645,7 +11651,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>1550</v>
       </c>
@@ -11691,7 +11697,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>1665</v>
       </c>
@@ -11714,7 +11720,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>1838</v>
       </c>
@@ -11737,7 +11743,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>852</v>
       </c>
@@ -11760,7 +11766,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>1779</v>
       </c>
@@ -11783,7 +11789,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>1021</v>
       </c>
@@ -11806,7 +11812,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>1491</v>
       </c>
@@ -11829,7 +11835,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>1429</v>
       </c>
@@ -11852,7 +11858,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>1220</v>
       </c>
@@ -11875,7 +11881,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>1607</v>
       </c>
@@ -11898,7 +11904,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>1556</v>
       </c>
@@ -11921,7 +11927,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>723</v>
       </c>
@@ -11944,7 +11950,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>1858</v>
       </c>
@@ -11967,7 +11973,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>2008</v>
       </c>
@@ -11990,7 +11996,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>1469</v>
       </c>
@@ -12013,7 +12019,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>1153</v>
       </c>
@@ -12036,7 +12042,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>1042</v>
       </c>
@@ -12059,7 +12065,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>1929</v>
       </c>
@@ -12082,7 +12088,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>1960</v>
       </c>
@@ -12105,7 +12111,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>836</v>
       </c>
@@ -12128,7 +12134,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>1985</v>
       </c>
@@ -12151,7 +12157,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>1819</v>
       </c>
@@ -12174,7 +12180,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>1113</v>
       </c>
@@ -12197,7 +12203,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>1948</v>
       </c>
@@ -12220,7 +12226,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>736</v>
       </c>
@@ -12243,7 +12249,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>762</v>
       </c>
@@ -12266,7 +12272,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>1305</v>
       </c>
@@ -12289,7 +12295,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>1317</v>
       </c>
@@ -12312,7 +12318,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>782</v>
       </c>
@@ -12335,7 +12341,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>1681</v>
       </c>
@@ -12358,7 +12364,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>1530</v>
       </c>
@@ -12381,7 +12387,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>645</v>
       </c>
@@ -12404,7 +12410,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>1582</v>
       </c>
@@ -12427,7 +12433,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>741</v>
       </c>
@@ -12450,7 +12456,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>1931</v>
       </c>
@@ -12473,7 +12479,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>1182</v>
       </c>
@@ -12496,7 +12502,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>1527</v>
       </c>
@@ -12519,7 +12525,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>837</v>
       </c>
@@ -12542,7 +12548,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>1849</v>
       </c>
@@ -12565,7 +12571,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>1941</v>
       </c>
@@ -12588,7 +12594,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>1133</v>
       </c>
@@ -12611,7 +12617,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>1511</v>
       </c>
@@ -12634,7 +12640,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>1683</v>
       </c>
@@ -12657,7 +12663,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>809</v>
       </c>
@@ -12680,7 +12686,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>1365</v>
       </c>
@@ -12703,7 +12709,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>966</v>
       </c>
@@ -12726,7 +12732,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>1818</v>
       </c>
@@ -12749,7 +12755,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>1577</v>
       </c>
@@ -12772,7 +12778,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>737</v>
       </c>
@@ -12795,7 +12801,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>1680</v>
       </c>
@@ -12841,7 +12847,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>790</v>
       </c>
@@ -12864,7 +12870,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>718</v>
       </c>
@@ -12887,7 +12893,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>764</v>
       </c>
@@ -12910,7 +12916,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>1847</v>
       </c>
@@ -12933,7 +12939,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>1046</v>
       </c>
@@ -12956,7 +12962,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>1719</v>
       </c>
@@ -12979,7 +12985,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>1212</v>
       </c>
@@ -13002,7 +13008,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>774</v>
       </c>
@@ -13025,7 +13031,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>985</v>
       </c>
@@ -13048,7 +13054,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>942</v>
       </c>
@@ -13071,7 +13077,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>1310</v>
       </c>
@@ -13094,7 +13100,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>1949</v>
       </c>
@@ -13117,7 +13123,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>998</v>
       </c>
@@ -13140,7 +13146,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>1811</v>
       </c>
@@ -13163,7 +13169,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>750</v>
       </c>
@@ -13186,7 +13192,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>1800</v>
       </c>
@@ -13209,7 +13215,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>1763</v>
       </c>
@@ -13232,7 +13238,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>1495</v>
       </c>
@@ -13255,7 +13261,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>1134</v>
       </c>
@@ -13278,7 +13284,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>1268</v>
       </c>
@@ -13301,7 +13307,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>2015</v>
       </c>
@@ -13324,7 +13330,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>1102</v>
       </c>
@@ -13347,7 +13353,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>1666</v>
       </c>
@@ -13370,7 +13376,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>1121</v>
       </c>
@@ -13393,7 +13399,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>1347</v>
       </c>
@@ -13416,7 +13422,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>674</v>
       </c>
@@ -13439,7 +13445,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>1327</v>
       </c>
@@ -13462,7 +13468,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>1243</v>
       </c>
@@ -13485,7 +13491,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>1518</v>
       </c>
@@ -13508,7 +13514,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>1876</v>
       </c>
@@ -13531,7 +13537,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>1452</v>
       </c>
@@ -13554,7 +13560,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>1832</v>
       </c>
@@ -13577,7 +13583,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>1020</v>
       </c>
@@ -13600,7 +13606,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>726</v>
       </c>
@@ -13623,7 +13629,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>1244</v>
       </c>
@@ -13646,7 +13652,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>1654</v>
       </c>
@@ -13669,7 +13675,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>1647</v>
       </c>
@@ -13692,7 +13698,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>1412</v>
       </c>
@@ -13715,7 +13721,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>635</v>
       </c>
@@ -13738,7 +13744,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>704</v>
       </c>
@@ -13761,7 +13767,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>1302</v>
       </c>
@@ -13784,7 +13790,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>1316</v>
       </c>
@@ -13807,7 +13813,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>1783</v>
       </c>
@@ -13830,7 +13836,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>888</v>
       </c>
@@ -13853,7 +13859,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>769</v>
       </c>
@@ -13876,7 +13882,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>1440</v>
       </c>
@@ -13899,7 +13905,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>1954</v>
       </c>
@@ -13922,7 +13928,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>1312</v>
       </c>
@@ -13945,7 +13951,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>1055</v>
       </c>
@@ -13968,7 +13974,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>1603</v>
       </c>
@@ -13991,7 +13997,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>1638</v>
       </c>
@@ -14014,7 +14020,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>1853</v>
       </c>
@@ -14037,7 +14043,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>964</v>
       </c>
@@ -14060,7 +14066,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>1934</v>
       </c>
@@ -14083,7 +14089,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>1606</v>
       </c>
@@ -14106,7 +14112,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>1164</v>
       </c>
@@ -14129,7 +14135,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>808</v>
       </c>
@@ -14152,7 +14158,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>1670</v>
       </c>
@@ -14175,7 +14181,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>1773</v>
       </c>
@@ -14198,7 +14204,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>1539</v>
       </c>
@@ -14221,7 +14227,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>853</v>
       </c>
@@ -14244,7 +14250,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>1292</v>
       </c>
@@ -14267,7 +14273,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>1317</v>
       </c>
@@ -14290,7 +14296,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>1320</v>
       </c>
@@ -14313,7 +14319,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>1324</v>
       </c>
@@ -14336,7 +14342,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>1349</v>
       </c>
@@ -14359,7 +14365,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>1419</v>
       </c>
@@ -14382,7 +14388,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>1497</v>
       </c>
@@ -14405,7 +14411,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>1560</v>
       </c>
@@ -14451,7 +14457,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>1667</v>
       </c>
@@ -14474,7 +14480,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>1692</v>
       </c>
@@ -14497,7 +14503,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>1692</v>
       </c>
@@ -14520,7 +14526,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>1716</v>
       </c>
@@ -14543,7 +14549,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>1752</v>
       </c>
@@ -14566,7 +14572,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>1757</v>
       </c>
@@ -14589,7 +14595,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>1789</v>
       </c>
@@ -14612,7 +14618,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>1208</v>
       </c>
@@ -14658,7 +14664,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>1674</v>
       </c>
@@ -14681,7 +14687,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>818</v>
       </c>
@@ -14704,7 +14710,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>848</v>
       </c>
@@ -14727,7 +14733,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>708</v>
       </c>
@@ -14750,7 +14756,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>1250</v>
       </c>
@@ -14773,7 +14779,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>1406</v>
       </c>
@@ -14796,7 +14802,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>1927</v>
       </c>
@@ -14819,7 +14825,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>1677</v>
       </c>
@@ -14842,7 +14848,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>693</v>
       </c>
@@ -14865,7 +14871,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>1439</v>
       </c>
@@ -14888,7 +14894,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>1566</v>
       </c>
@@ -14911,7 +14917,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>1314</v>
       </c>
@@ -14934,7 +14940,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>1413</v>
       </c>
@@ -14957,7 +14963,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>1493</v>
       </c>
@@ -14980,7 +14986,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>1747</v>
       </c>
@@ -15003,7 +15009,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>1669</v>
       </c>
@@ -15026,7 +15032,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>778</v>
       </c>
@@ -15049,7 +15055,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>1058</v>
       </c>
@@ -15072,7 +15078,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>1943</v>
       </c>
@@ -15095,7 +15101,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>2005</v>
       </c>
@@ -15118,7 +15124,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>1224</v>
       </c>
@@ -15141,7 +15147,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>702</v>
       </c>
@@ -15164,7 +15170,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>1870</v>
       </c>
@@ -15187,7 +15193,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>949</v>
       </c>
@@ -15210,7 +15216,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>1794</v>
       </c>
@@ -15233,7 +15239,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>795</v>
       </c>
@@ -15256,7 +15262,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>1047</v>
       </c>
@@ -15279,7 +15285,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>1623</v>
       </c>
@@ -15302,7 +15308,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>1404</v>
       </c>
@@ -15325,7 +15331,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>743</v>
       </c>
@@ -15348,7 +15354,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>720</v>
       </c>
@@ -15371,7 +15377,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>1093</v>
       </c>
@@ -15394,7 +15400,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>1916</v>
       </c>
@@ -15417,7 +15423,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>1581</v>
       </c>
@@ -15440,7 +15446,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>1286</v>
       </c>
@@ -15463,7 +15469,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>630</v>
       </c>
@@ -15486,7 +15492,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>1502</v>
       </c>
@@ -15509,7 +15515,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>1866</v>
       </c>
@@ -15532,7 +15538,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>1554</v>
       </c>
@@ -15555,7 +15561,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>1642</v>
       </c>
@@ -15578,7 +15584,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>993</v>
       </c>
@@ -15601,7 +15607,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>1108</v>
       </c>
@@ -15624,7 +15630,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>1765</v>
       </c>
@@ -15647,7 +15653,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>1650</v>
       </c>
@@ -15670,7 +15676,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>1614</v>
       </c>
@@ -15693,7 +15699,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>1633</v>
       </c>
@@ -15716,7 +15722,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>1736</v>
       </c>
@@ -15739,7 +15745,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>1271</v>
       </c>
@@ -15762,7 +15768,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>1461</v>
       </c>
@@ -15785,7 +15791,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>690</v>
       </c>
@@ -15808,7 +15814,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>719</v>
       </c>
@@ -15831,7 +15837,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>1166</v>
       </c>
@@ -15877,7 +15883,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>1267</v>
       </c>
@@ -15900,7 +15906,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>1226</v>
       </c>
@@ -15923,7 +15929,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>1843</v>
       </c>
@@ -15946,7 +15952,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>735</v>
       </c>
@@ -15969,7 +15975,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>996</v>
       </c>
@@ -15992,7 +15998,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>1534</v>
       </c>
@@ -16015,7 +16021,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>1174</v>
       </c>
@@ -16038,7 +16044,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>662</v>
       </c>
@@ -16061,7 +16067,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>1216</v>
       </c>
@@ -16084,7 +16090,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>1368</v>
       </c>
@@ -16107,7 +16113,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>1169</v>
       </c>
@@ -16130,7 +16136,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>1772</v>
       </c>
@@ -16153,7 +16159,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>1724</v>
       </c>
@@ -16176,7 +16182,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>1963</v>
       </c>
@@ -16199,7 +16205,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>1709</v>
       </c>
@@ -16222,7 +16228,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>1275</v>
       </c>
@@ -16245,7 +16251,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>685</v>
       </c>
@@ -16268,7 +16274,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>1445</v>
       </c>
@@ -16291,7 +16297,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>1537</v>
       </c>
@@ -16314,7 +16320,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>1300</v>
       </c>
@@ -16337,7 +16343,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>1382</v>
       </c>
@@ -16406,7 +16412,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
         <v>1989</v>
       </c>
@@ -16429,7 +16435,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
         <v>2000</v>
       </c>
@@ -16452,7 +16458,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
         <v>1932</v>
       </c>
@@ -16475,7 +16481,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
         <v>1180</v>
       </c>
@@ -16498,7 +16504,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
         <v>1671</v>
       </c>
@@ -16521,7 +16527,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
         <v>804</v>
       </c>
@@ -16544,7 +16550,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
         <v>624</v>
       </c>
@@ -16567,7 +16573,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
         <v>1299</v>
       </c>
@@ -16590,7 +16596,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
         <v>813</v>
       </c>
@@ -16613,7 +16619,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
         <v>1546</v>
       </c>
@@ -16636,7 +16642,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
         <v>1886</v>
       </c>
@@ -16659,7 +16665,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
         <v>1602</v>
       </c>
@@ -16705,7 +16711,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
         <v>855</v>
       </c>
@@ -16728,7 +16734,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
         <v>1155</v>
       </c>
@@ -16751,7 +16757,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
         <v>1860</v>
       </c>
@@ -16774,7 +16780,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
         <v>777</v>
       </c>
@@ -16797,7 +16803,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
         <v>938</v>
       </c>
@@ -16820,7 +16826,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
         <v>1822</v>
       </c>
@@ -16843,7 +16849,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
         <v>1701</v>
       </c>
@@ -16866,7 +16872,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
         <v>1856</v>
       </c>
@@ -16889,7 +16895,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
         <v>1859</v>
       </c>
@@ -16912,7 +16918,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
         <v>1110</v>
       </c>
@@ -16935,7 +16941,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
         <v>2001</v>
       </c>
@@ -16958,7 +16964,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
         <v>1395</v>
       </c>
@@ -16981,7 +16987,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
         <v>701</v>
       </c>
@@ -17004,7 +17010,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
         <v>1805</v>
       </c>
@@ -17027,7 +17033,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
         <v>1729</v>
       </c>
@@ -17050,7 +17056,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
         <v>908</v>
       </c>
@@ -17096,7 +17102,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
         <v>1091</v>
       </c>
@@ -17119,7 +17125,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
         <v>1377</v>
       </c>
@@ -17142,7 +17148,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
         <v>992</v>
       </c>
@@ -17165,7 +17171,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
         <v>861</v>
       </c>
@@ -17188,7 +17194,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
         <v>1532</v>
       </c>
@@ -17211,7 +17217,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
         <v>1673</v>
       </c>
@@ -17234,7 +17240,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
         <v>806</v>
       </c>
@@ -17257,7 +17263,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
         <v>1745</v>
       </c>
@@ -17280,7 +17286,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
         <v>1965</v>
       </c>
@@ -17303,7 +17309,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
         <v>1796</v>
       </c>
@@ -17326,7 +17332,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
         <v>1059</v>
       </c>
@@ -17349,7 +17355,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
         <v>815</v>
       </c>
@@ -17372,7 +17378,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
         <v>1967</v>
       </c>
@@ -17418,7 +17424,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
         <v>1254</v>
       </c>
@@ -17441,7 +17447,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
         <v>1259</v>
       </c>
@@ -17464,7 +17470,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
         <v>1222</v>
       </c>
@@ -17487,7 +17493,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
         <v>823</v>
       </c>
@@ -17510,7 +17516,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
         <v>874</v>
       </c>
@@ -17533,7 +17539,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
         <v>1015</v>
       </c>
@@ -17556,7 +17562,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
         <v>1065</v>
       </c>
@@ -17579,7 +17585,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
         <v>1103</v>
       </c>
@@ -17602,7 +17608,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
         <v>1544</v>
       </c>
@@ -17625,7 +17631,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
         <v>1774</v>
       </c>
@@ -17648,7 +17654,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
         <v>1612</v>
       </c>
@@ -17671,7 +17677,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
         <v>1945</v>
       </c>
@@ -17694,7 +17700,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
         <v>1341</v>
       </c>
@@ -17717,7 +17723,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
         <v>1894</v>
       </c>
@@ -17740,7 +17746,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
         <v>1571</v>
       </c>
@@ -17763,7 +17769,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
         <v>968</v>
       </c>
@@ -17786,7 +17792,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
         <v>1130</v>
       </c>
@@ -17809,7 +17815,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
         <v>1172</v>
       </c>
@@ -17832,7 +17838,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
         <v>664</v>
       </c>
@@ -17855,7 +17861,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
         <v>745</v>
       </c>
@@ -17878,7 +17884,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
         <v>1987</v>
       </c>
@@ -17901,7 +17907,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
         <v>1148</v>
       </c>
@@ -17924,7 +17930,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
         <v>1617</v>
       </c>
@@ -17947,7 +17953,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
         <v>1536</v>
       </c>
@@ -17970,7 +17976,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
         <v>1540</v>
       </c>
@@ -17993,7 +17999,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
         <v>1150</v>
       </c>
@@ -18016,7 +18022,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
         <v>1008</v>
       </c>
@@ -18039,7 +18045,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
         <v>814</v>
       </c>
@@ -18062,7 +18068,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
         <v>1334</v>
       </c>
@@ -18085,7 +18091,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
         <v>986</v>
       </c>
@@ -18108,7 +18114,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
         <v>1928</v>
       </c>
@@ -18131,7 +18137,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
         <v>1052</v>
       </c>
@@ -18154,7 +18160,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
         <v>2003</v>
       </c>
@@ -18177,7 +18183,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
         <v>958</v>
       </c>
@@ -18200,7 +18206,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
         <v>1812</v>
       </c>
@@ -18246,7 +18252,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
         <v>919</v>
       </c>
@@ -18292,7 +18298,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
         <v>975</v>
       </c>
@@ -18315,7 +18321,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
         <v>1926</v>
       </c>
@@ -18338,7 +18344,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
         <v>1551</v>
       </c>
@@ -18361,7 +18367,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
         <v>1295</v>
       </c>
@@ -18384,7 +18390,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
         <v>1802</v>
       </c>
@@ -18407,7 +18413,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
         <v>1591</v>
       </c>
@@ -18430,7 +18436,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
         <v>1287</v>
       </c>
@@ -18453,7 +18459,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
         <v>1979</v>
       </c>
@@ -18476,7 +18482,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
         <v>1525</v>
       </c>
@@ -18499,7 +18505,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
         <v>1851</v>
       </c>
@@ -18522,7 +18528,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
         <v>951</v>
       </c>
@@ -18545,7 +18551,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
         <v>859</v>
       </c>
@@ -18568,7 +18574,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
         <v>863</v>
       </c>
@@ -18591,7 +18597,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
         <v>1836</v>
       </c>
@@ -18614,7 +18620,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="2" t="s">
         <v>1309</v>
       </c>
@@ -18637,7 +18643,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
         <v>1326</v>
       </c>
@@ -18660,7 +18666,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="2" t="s">
         <v>1291</v>
       </c>
@@ -18683,7 +18689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
         <v>924</v>
       </c>
@@ -18706,7 +18712,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="2" t="s">
         <v>1179</v>
       </c>
@@ -18729,7 +18735,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="2" t="s">
         <v>738</v>
       </c>
@@ -18752,7 +18758,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="2" t="s">
         <v>725</v>
       </c>
@@ -18775,7 +18781,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
         <v>688</v>
       </c>
@@ -18798,7 +18804,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
         <v>1973</v>
       </c>
@@ -18821,7 +18827,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
         <v>1834</v>
       </c>
@@ -18844,7 +18850,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
         <v>1689</v>
       </c>
@@ -18867,7 +18873,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
         <v>1971</v>
       </c>
@@ -18890,7 +18896,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
         <v>1564</v>
       </c>
@@ -18913,7 +18919,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
         <v>825</v>
       </c>
@@ -18936,7 +18942,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
         <v>889</v>
       </c>
@@ -18959,7 +18965,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="2" t="s">
         <v>1376</v>
       </c>
@@ -18982,7 +18988,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="2" t="s">
         <v>785</v>
       </c>
@@ -19005,7 +19011,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="2" t="s">
         <v>1901</v>
       </c>
@@ -19028,7 +19034,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
         <v>2012</v>
       </c>
@@ -19051,7 +19057,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="2" t="s">
         <v>1051</v>
       </c>
@@ -19074,7 +19080,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="2" t="s">
         <v>684</v>
       </c>
@@ -19097,7 +19103,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
         <v>1301</v>
       </c>
@@ -19120,7 +19126,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="2" t="s">
         <v>1315</v>
       </c>
@@ -19166,7 +19172,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="2" t="s">
         <v>1648</v>
       </c>
@@ -19189,7 +19195,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="2" t="s">
         <v>1868</v>
       </c>
@@ -19235,7 +19241,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
         <v>909</v>
       </c>
@@ -19258,7 +19264,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
         <v>1731</v>
       </c>
@@ -19281,7 +19287,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="2" t="s">
         <v>1776</v>
       </c>
@@ -19304,7 +19310,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="2" t="s">
         <v>1149</v>
       </c>
@@ -19327,7 +19333,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="2" t="s">
         <v>761</v>
       </c>
@@ -19350,7 +19356,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="2" t="s">
         <v>1679</v>
       </c>
@@ -19373,7 +19379,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
         <v>1580</v>
       </c>
@@ -19419,7 +19425,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
         <v>1845</v>
       </c>
@@ -19442,7 +19448,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
         <v>834</v>
       </c>
@@ -19465,7 +19471,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
         <v>959</v>
       </c>
@@ -19488,7 +19494,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
         <v>1240</v>
       </c>
@@ -19534,7 +19540,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
         <v>744</v>
       </c>
@@ -19557,7 +19563,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="2" t="s">
         <v>1907</v>
       </c>
@@ -19580,7 +19586,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
         <v>1035</v>
       </c>
@@ -19626,7 +19632,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="2" t="s">
         <v>965</v>
       </c>
@@ -19649,7 +19655,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
         <v>1883</v>
       </c>
@@ -19672,7 +19678,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
         <v>706</v>
       </c>
@@ -19695,7 +19701,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
         <v>970</v>
       </c>
@@ -19718,7 +19724,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
         <v>1750</v>
       </c>
@@ -19741,7 +19747,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
         <v>916</v>
       </c>
@@ -19764,7 +19770,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
         <v>843</v>
       </c>
@@ -19787,7 +19793,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="2" t="s">
         <v>885</v>
       </c>
@@ -19810,7 +19816,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
         <v>1479</v>
       </c>
@@ -19833,7 +19839,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
         <v>1924</v>
       </c>
@@ -19856,7 +19862,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
         <v>1458</v>
       </c>
@@ -19879,7 +19885,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="2" t="s">
         <v>936</v>
       </c>
@@ -19902,7 +19908,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
         <v>755</v>
       </c>
@@ -19925,7 +19931,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="2" t="s">
         <v>1512</v>
       </c>
@@ -19948,7 +19954,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="2" t="s">
         <v>1143</v>
       </c>
@@ -19971,7 +19977,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="2" t="s">
         <v>716</v>
       </c>
@@ -19994,7 +20000,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="2" t="s">
         <v>1129</v>
       </c>
@@ -20017,7 +20023,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
         <v>1181</v>
       </c>
@@ -20040,7 +20046,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
         <v>1086</v>
       </c>
@@ -20063,7 +20069,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="2" t="s">
         <v>1032</v>
       </c>
@@ -20086,7 +20092,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="2" t="s">
         <v>991</v>
       </c>
@@ -20109,7 +20115,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="2" t="s">
         <v>877</v>
       </c>
@@ -20132,7 +20138,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="2" t="s">
         <v>1632</v>
       </c>
@@ -20155,7 +20161,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="2" t="s">
         <v>783</v>
       </c>
@@ -20178,7 +20184,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="2" t="s">
         <v>676</v>
       </c>
@@ -20201,7 +20207,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="2" t="s">
         <v>1359</v>
       </c>
@@ -20224,7 +20230,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="2" t="s">
         <v>1826</v>
       </c>
@@ -20247,7 +20253,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="2" t="s">
         <v>1842</v>
       </c>
@@ -20270,7 +20276,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="2" t="s">
         <v>1686</v>
       </c>
@@ -20293,7 +20299,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="2" t="s">
         <v>1189</v>
       </c>
@@ -20316,7 +20322,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="2" t="s">
         <v>928</v>
       </c>
@@ -20339,7 +20345,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="2" t="s">
         <v>1005</v>
       </c>
@@ -20362,7 +20368,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="2" t="s">
         <v>1282</v>
       </c>
@@ -20385,7 +20391,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="2" t="s">
         <v>1228</v>
       </c>
@@ -20408,7 +20414,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="2" t="s">
         <v>1311</v>
       </c>
@@ -20431,7 +20437,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="2" t="s">
         <v>1930</v>
       </c>
@@ -20454,7 +20460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="2" t="s">
         <v>1023</v>
       </c>
@@ -20477,7 +20483,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="2" t="s">
         <v>1034</v>
       </c>
@@ -20523,7 +20529,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="2" t="s">
         <v>793</v>
       </c>
@@ -20546,7 +20552,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="2" t="s">
         <v>1644</v>
       </c>
@@ -20569,7 +20575,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="2" t="s">
         <v>1882</v>
       </c>
@@ -20592,7 +20598,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="2" t="s">
         <v>1170</v>
       </c>
@@ -20615,7 +20621,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="2" t="s">
         <v>1363</v>
       </c>
@@ -20638,7 +20644,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="2" t="s">
         <v>639</v>
       </c>
@@ -20661,7 +20667,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="2" t="s">
         <v>1463</v>
       </c>
@@ -20684,7 +20690,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="2" t="s">
         <v>897</v>
       </c>
@@ -20707,7 +20713,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="2" t="s">
         <v>1225</v>
       </c>
@@ -20730,7 +20736,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="2" t="s">
         <v>895</v>
       </c>
@@ -20753,7 +20759,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="2" t="s">
         <v>1720</v>
       </c>
@@ -20776,7 +20782,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="2" t="s">
         <v>652</v>
       </c>
@@ -20822,7 +20828,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="2" t="s">
         <v>1329</v>
       </c>
@@ -20868,7 +20874,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="2" t="s">
         <v>1520</v>
       </c>
@@ -20914,7 +20920,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" s="2" t="s">
         <v>1980</v>
       </c>
@@ -20937,7 +20943,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" s="2" t="s">
         <v>1247</v>
       </c>
@@ -20960,7 +20966,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" s="2" t="s">
         <v>1041</v>
       </c>
@@ -20983,7 +20989,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" s="2" t="s">
         <v>1625</v>
       </c>
@@ -21006,7 +21012,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="2" t="s">
         <v>1199</v>
       </c>
@@ -21029,7 +21035,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" s="2" t="s">
         <v>1136</v>
       </c>
@@ -21052,7 +21058,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" s="2" t="s">
         <v>981</v>
       </c>
@@ -21075,7 +21081,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" s="2" t="s">
         <v>1297</v>
       </c>
@@ -21098,7 +21104,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" s="2" t="s">
         <v>1154</v>
       </c>
@@ -21121,7 +21127,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" s="2" t="s">
         <v>1861</v>
       </c>
@@ -21144,7 +21150,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" s="2" t="s">
         <v>1194</v>
       </c>
@@ -21167,7 +21173,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" s="2" t="s">
         <v>1147</v>
       </c>
@@ -21190,7 +21196,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" s="2" t="s">
         <v>1343</v>
       </c>
@@ -21213,7 +21219,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" s="2" t="s">
         <v>1913</v>
       </c>
@@ -21236,7 +21242,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" s="2" t="s">
         <v>1903</v>
       </c>
@@ -21259,7 +21265,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" s="2" t="s">
         <v>1062</v>
       </c>
@@ -21282,7 +21288,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" s="2" t="s">
         <v>910</v>
       </c>
@@ -21305,7 +21311,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" s="2" t="s">
         <v>1557</v>
       </c>
@@ -21328,7 +21334,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" s="2" t="s">
         <v>1064</v>
       </c>
@@ -21351,7 +21357,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" s="2" t="s">
         <v>1880</v>
       </c>
@@ -21374,7 +21380,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" s="2" t="s">
         <v>999</v>
       </c>
@@ -21397,7 +21403,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" s="2" t="s">
         <v>1296</v>
       </c>
@@ -21420,7 +21426,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" s="2" t="s">
         <v>953</v>
       </c>
@@ -21443,7 +21449,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" s="2" t="s">
         <v>1187</v>
       </c>
@@ -21489,7 +21495,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" s="2" t="s">
         <v>1163</v>
       </c>
@@ -21512,7 +21518,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" s="2" t="s">
         <v>1122</v>
       </c>
@@ -21535,7 +21541,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" s="2" t="s">
         <v>633</v>
       </c>
@@ -21558,7 +21564,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" s="2" t="s">
         <v>696</v>
       </c>
@@ -21581,7 +21587,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" s="2" t="s">
         <v>1201</v>
       </c>
@@ -21604,7 +21610,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" s="2" t="s">
         <v>753</v>
       </c>
@@ -21627,7 +21633,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" s="2" t="s">
         <v>1549</v>
       </c>
@@ -21696,7 +21702,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" s="2" t="s">
         <v>1269</v>
       </c>
@@ -21719,7 +21725,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" s="2" t="s">
         <v>1748</v>
       </c>
@@ -21742,7 +21748,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" s="2" t="s">
         <v>886</v>
       </c>
@@ -21765,7 +21771,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" s="2" t="s">
         <v>667</v>
       </c>
@@ -21788,7 +21794,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" s="2" t="s">
         <v>1922</v>
       </c>
@@ -21811,7 +21817,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" s="2" t="s">
         <v>1791</v>
       </c>
@@ -21834,7 +21840,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" s="2" t="s">
         <v>1190</v>
       </c>
@@ -21857,7 +21863,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" s="2" t="s">
         <v>1567</v>
       </c>
@@ -21880,7 +21886,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" s="2" t="s">
         <v>1781</v>
       </c>
@@ -21903,7 +21909,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" s="2" t="s">
         <v>860</v>
       </c>
@@ -21926,7 +21932,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" s="2" t="s">
         <v>1969</v>
       </c>
@@ -21949,7 +21955,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" s="2" t="s">
         <v>955</v>
       </c>
@@ -21972,7 +21978,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" s="2" t="s">
         <v>832</v>
       </c>
@@ -21995,7 +22001,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" s="2" t="s">
         <v>1485</v>
       </c>
@@ -22018,7 +22024,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" s="2" t="s">
         <v>1018</v>
       </c>
@@ -22041,7 +22047,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" s="2" t="s">
         <v>1905</v>
       </c>
@@ -22064,7 +22070,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" s="2" t="s">
         <v>626</v>
       </c>
@@ -22087,7 +22093,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" s="2" t="s">
         <v>1920</v>
       </c>
@@ -22110,7 +22116,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" s="2" t="s">
         <v>1792</v>
       </c>
@@ -22156,7 +22162,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" s="2" t="s">
         <v>796</v>
       </c>
@@ -22179,7 +22185,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" s="2" t="s">
         <v>1074</v>
       </c>
@@ -22202,7 +22208,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" s="2" t="s">
         <v>881</v>
       </c>
@@ -22225,7 +22231,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" s="2" t="s">
         <v>1419</v>
       </c>
@@ -22248,7 +22254,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" s="2" t="s">
         <v>1467</v>
       </c>
@@ -22271,7 +22277,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" s="2" t="s">
         <v>1126</v>
       </c>
@@ -22294,7 +22300,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" s="2" t="s">
         <v>1821</v>
       </c>
@@ -22317,7 +22323,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" s="2" t="s">
         <v>1221</v>
       </c>
@@ -22340,7 +22346,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" s="2" t="s">
         <v>1278</v>
       </c>
@@ -22363,7 +22369,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" s="2" t="s">
         <v>883</v>
       </c>
@@ -22386,7 +22392,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" s="2" t="s">
         <v>772</v>
       </c>
@@ -22432,7 +22438,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" s="2" t="s">
         <v>1089</v>
       </c>
@@ -22455,7 +22461,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" s="2" t="s">
         <v>1025</v>
       </c>
@@ -22478,7 +22484,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" s="2" t="s">
         <v>1787</v>
       </c>
@@ -22501,7 +22507,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" s="2" t="s">
         <v>1422</v>
       </c>
@@ -22524,7 +22530,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" s="2" t="s">
         <v>1897</v>
       </c>
@@ -22547,7 +22553,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" s="2" t="s">
         <v>1060</v>
       </c>
@@ -22570,7 +22576,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" s="2" t="s">
         <v>1910</v>
       </c>
@@ -22593,7 +22599,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" s="2" t="s">
         <v>1487</v>
       </c>
@@ -22616,7 +22622,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" s="2" t="s">
         <v>810</v>
       </c>
@@ -22639,7 +22645,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" s="2" t="s">
         <v>1161</v>
       </c>
@@ -22662,7 +22668,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" s="2" t="s">
         <v>1997</v>
       </c>
@@ -22685,7 +22691,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" s="2" t="s">
         <v>1807</v>
       </c>
@@ -22708,7 +22714,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" s="2" t="s">
         <v>1688</v>
       </c>
@@ -22754,7 +22760,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" s="2" t="s">
         <v>1438</v>
       </c>
@@ -22800,7 +22806,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" s="2" t="s">
         <v>1109</v>
       </c>
@@ -22823,7 +22829,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" s="2" t="s">
         <v>715</v>
       </c>
@@ -22846,7 +22852,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" s="2" t="s">
         <v>1874</v>
       </c>
@@ -22869,7 +22875,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" s="2" t="s">
         <v>1770</v>
       </c>
@@ -22892,7 +22898,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" s="2" t="s">
         <v>1978</v>
       </c>
@@ -22915,7 +22921,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" s="2" t="s">
         <v>1981</v>
       </c>
@@ -22938,7 +22944,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" s="2" t="s">
         <v>758</v>
       </c>
@@ -22961,7 +22967,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" s="2" t="s">
         <v>1548</v>
       </c>
@@ -23007,7 +23013,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" s="2" t="s">
         <v>1255</v>
       </c>
@@ -23030,7 +23036,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" s="2" t="s">
         <v>1349</v>
       </c>
@@ -23053,7 +23059,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="695" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" s="2" t="s">
         <v>1252</v>
       </c>
@@ -23076,7 +23082,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" s="2" t="s">
         <v>1844</v>
       </c>
@@ -23099,7 +23105,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" s="2" t="s">
         <v>821</v>
       </c>
@@ -23145,7 +23151,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" s="2" t="s">
         <v>1261</v>
       </c>
@@ -23168,7 +23174,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" s="2" t="s">
         <v>1472</v>
       </c>
@@ -23191,7 +23197,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" s="2" t="s">
         <v>1191</v>
       </c>
@@ -23214,7 +23220,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="702" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" s="2" t="s">
         <v>1466</v>
       </c>
@@ -23237,7 +23243,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="703" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" s="2" t="s">
         <v>1522</v>
       </c>
@@ -23260,7 +23266,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="704" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" s="2" t="s">
         <v>1769</v>
       </c>
@@ -23306,7 +23312,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="706" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" s="2" t="s">
         <v>1414</v>
       </c>
@@ -23329,7 +23335,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="707" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" s="2" t="s">
         <v>1107</v>
       </c>
@@ -23352,7 +23358,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="708" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" s="2" t="s">
         <v>714</v>
       </c>
@@ -23375,7 +23381,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="709" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" s="2" t="s">
         <v>1659</v>
       </c>
@@ -23398,7 +23404,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="710" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" s="2" t="s">
         <v>1595</v>
       </c>
@@ -23467,7 +23473,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="713" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" s="2" t="s">
         <v>1331</v>
       </c>
@@ -23490,7 +23496,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="714" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" s="2" t="s">
         <v>1238</v>
       </c>
@@ -23513,7 +23519,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="715" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" s="2" t="s">
         <v>1784</v>
       </c>
@@ -23559,7 +23565,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="717" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" s="2" t="s">
         <v>2016</v>
       </c>
@@ -23582,7 +23588,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="718" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" s="2" t="s">
         <v>1541</v>
       </c>
@@ -23605,7 +23611,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="719" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" s="2" t="s">
         <v>1273</v>
       </c>
@@ -23628,7 +23634,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="720" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" s="2" t="s">
         <v>1939</v>
       </c>
@@ -23651,7 +23657,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="721" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" s="2" t="s">
         <v>682</v>
       </c>
@@ -23674,7 +23680,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="722" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" s="2" t="s">
         <v>850</v>
       </c>
@@ -23697,7 +23703,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="723" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" s="2" t="s">
         <v>677</v>
       </c>
@@ -23720,7 +23726,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="724" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" s="2" t="s">
         <v>1253</v>
       </c>
@@ -23743,7 +23749,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="725" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" s="2" t="s">
         <v>1242</v>
       </c>
@@ -23766,7 +23772,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="726" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" s="2" t="s">
         <v>1615</v>
       </c>
@@ -23789,7 +23795,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="727" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" s="2" t="s">
         <v>1087</v>
       </c>
@@ -23812,7 +23818,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="728" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" s="2" t="s">
         <v>816</v>
       </c>
@@ -23835,7 +23841,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="729" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" s="2" t="s">
         <v>1741</v>
       </c>
@@ -23858,7 +23864,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="730" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" s="2" t="s">
         <v>1723</v>
       </c>
@@ -23881,7 +23887,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="731" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" s="2" t="s">
         <v>748</v>
       </c>
@@ -23904,7 +23910,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="732" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" s="2" t="s">
         <v>800</v>
       </c>
@@ -23927,7 +23933,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="733" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" s="2" t="s">
         <v>709</v>
       </c>
@@ -23950,7 +23956,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="734" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" s="2" t="s">
         <v>663</v>
       </c>
@@ -23973,7 +23979,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="735" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" s="2" t="s">
         <v>839</v>
       </c>
@@ -23996,7 +24002,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="736" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" s="2" t="s">
         <v>869</v>
       </c>
@@ -24019,7 +24025,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="737" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" s="2" t="s">
         <v>1167</v>
       </c>
@@ -24042,7 +24048,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="738" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" s="2" t="s">
         <v>1289</v>
       </c>
@@ -24065,7 +24071,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="739" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" s="2" t="s">
         <v>729</v>
       </c>
@@ -24088,7 +24094,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="740" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" s="2" t="s">
         <v>1084</v>
       </c>
@@ -24111,7 +24117,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="741" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" s="2" t="s">
         <v>1635</v>
       </c>
@@ -24134,7 +24140,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="742" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" s="2" t="s">
         <v>803</v>
       </c>
@@ -24157,7 +24163,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="743" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" s="2" t="s">
         <v>638</v>
       </c>
@@ -24180,7 +24186,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="744" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" s="2" t="s">
         <v>787</v>
       </c>
@@ -24203,7 +24209,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="745" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" s="2" t="s">
         <v>1998</v>
       </c>
@@ -24226,7 +24232,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="746" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" s="2" t="s">
         <v>1100</v>
       </c>
@@ -24249,7 +24255,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="747" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" s="2" t="s">
         <v>1586</v>
       </c>
@@ -24295,7 +24301,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="749" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" s="2" t="s">
         <v>712</v>
       </c>
@@ -24318,7 +24324,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="750" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" s="2" t="s">
         <v>841</v>
       </c>
@@ -24341,7 +24347,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="751" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" s="2" t="s">
         <v>1767</v>
       </c>
@@ -24364,7 +24370,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="752" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" s="2" t="s">
         <v>1631</v>
       </c>
@@ -24387,7 +24393,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="753" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" s="2" t="s">
         <v>1641</v>
       </c>
@@ -24410,7 +24416,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="754" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" s="2" t="s">
         <v>1117</v>
       </c>
@@ -24433,7 +24439,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="755" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" s="2" t="s">
         <v>1144</v>
       </c>
@@ -24479,7 +24485,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="757" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" s="2" t="s">
         <v>930</v>
       </c>
@@ -24502,7 +24508,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="758" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" s="2" t="s">
         <v>1256</v>
       </c>
@@ -24525,7 +24531,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="759" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" s="2" t="s">
         <v>1056</v>
       </c>
@@ -24548,7 +24554,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="760" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" s="2" t="s">
         <v>1080</v>
       </c>
@@ -24571,7 +24577,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="761" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" s="2" t="s">
         <v>1094</v>
       </c>
@@ -24617,7 +24623,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="763" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" s="2" t="s">
         <v>1706</v>
       </c>
@@ -24640,7 +24646,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="764" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" s="2" t="s">
         <v>893</v>
       </c>
@@ -24663,7 +24669,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="765" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" s="2" t="s">
         <v>983</v>
       </c>
@@ -24709,7 +24715,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="767" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" s="2" t="s">
         <v>1755</v>
       </c>
@@ -24732,7 +24738,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="768" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768" s="2" t="s">
         <v>1727</v>
       </c>
@@ -24755,7 +24761,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="769" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" s="2" t="s">
         <v>934</v>
       </c>
@@ -24778,7 +24784,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="770" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" s="2" t="s">
         <v>622</v>
       </c>
@@ -24801,7 +24807,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="771" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771" s="2" t="s">
         <v>1128</v>
       </c>
@@ -24824,7 +24830,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="772" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772" s="2" t="s">
         <v>1663</v>
       </c>
@@ -24847,7 +24853,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="773" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" s="2" t="s">
         <v>698</v>
       </c>
@@ -24870,7 +24876,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="774" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" s="2" t="s">
         <v>1213</v>
       </c>
@@ -24893,7 +24899,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="775" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" s="2" t="s">
         <v>906</v>
       </c>
@@ -24916,7 +24922,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="776" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" s="2" t="s">
         <v>802</v>
       </c>
@@ -24939,7 +24945,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="777" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" s="2" t="s">
         <v>1010</v>
       </c>
@@ -24962,7 +24968,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="778" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" s="2" t="s">
         <v>1280</v>
       </c>
@@ -24985,7 +24991,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="779" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779" s="2" t="s">
         <v>756</v>
       </c>
@@ -25008,7 +25014,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="780" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780" s="2" t="s">
         <v>1183</v>
       </c>
@@ -25031,7 +25037,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="781" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" s="2" t="s">
         <v>868</v>
       </c>
@@ -25054,7 +25060,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="782" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782" s="2" t="s">
         <v>1030</v>
       </c>
@@ -25077,7 +25083,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="783" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783" s="2" t="s">
         <v>1141</v>
       </c>
@@ -25100,7 +25106,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="784" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784" s="2" t="s">
         <v>1698</v>
       </c>
@@ -25123,7 +25129,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="785" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785" s="2" t="s">
         <v>1097</v>
       </c>
@@ -25146,7 +25152,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="786" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786" s="2" t="s">
         <v>1454</v>
       </c>
@@ -25169,7 +25175,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="787" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787" s="2" t="s">
         <v>829</v>
       </c>
@@ -25192,7 +25198,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="788" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788" s="2" t="s">
         <v>731</v>
       </c>
@@ -25238,7 +25244,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="790" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790" s="2" t="s">
         <v>734</v>
       </c>
@@ -25261,7 +25267,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="791" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791" s="2" t="s">
         <v>654</v>
       </c>
@@ -25284,7 +25290,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="792" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792" s="2" t="s">
         <v>1840</v>
       </c>
@@ -25307,7 +25313,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="793" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793" s="2" t="s">
         <v>819</v>
       </c>
@@ -25330,7 +25336,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="794" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A794" s="2" t="s">
         <v>1999</v>
       </c>
@@ -25353,7 +25359,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="795" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795" s="2" t="s">
         <v>947</v>
       </c>
@@ -25376,7 +25382,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="796" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A796" s="2" t="s">
         <v>1075</v>
       </c>
@@ -25399,7 +25405,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="797" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797" s="2" t="s">
         <v>746</v>
       </c>
@@ -25422,7 +25428,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="798" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A798" s="2" t="s">
         <v>1124</v>
       </c>
@@ -25445,7 +25451,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="799" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A799" s="2" t="s">
         <v>1695</v>
       </c>
@@ -25468,7 +25474,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="800" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800" s="2" t="s">
         <v>911</v>
       </c>
@@ -25491,7 +25497,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="801" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A801" s="2" t="s">
         <v>1430</v>
       </c>
@@ -25514,7 +25520,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="802" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802" s="2" t="s">
         <v>1265</v>
       </c>
@@ -25537,7 +25543,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="803" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803" s="2" t="s">
         <v>1038</v>
       </c>
@@ -25583,7 +25589,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="805" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805" s="2" t="s">
         <v>722</v>
       </c>
@@ -25606,7 +25612,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="806" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806" s="2" t="s">
         <v>1184</v>
       </c>
@@ -25629,7 +25635,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="807" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807" s="2" t="s">
         <v>1345</v>
       </c>
@@ -25698,7 +25704,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="810" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810" s="2" t="s">
         <v>1986</v>
       </c>
@@ -25721,7 +25727,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="811" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811" s="2" t="s">
         <v>1699</v>
       </c>
@@ -25744,7 +25750,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="812" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812" s="2" t="s">
         <v>1067</v>
       </c>
@@ -25767,7 +25773,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="813" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813" s="2" t="s">
         <v>1070</v>
       </c>
@@ -25790,7 +25796,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="814" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814" s="2" t="s">
         <v>1119</v>
       </c>
@@ -25813,7 +25819,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="815" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A815" s="2" t="s">
         <v>1204</v>
       </c>
@@ -25859,7 +25865,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="817" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A817" s="2" t="s">
         <v>1809</v>
       </c>
@@ -25882,7 +25888,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="818" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A818" s="2" t="s">
         <v>1178</v>
       </c>
@@ -25905,7 +25911,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="819" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A819" s="2" t="s">
         <v>1444</v>
       </c>
@@ -25928,7 +25934,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="820" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A820" s="2" t="s">
         <v>680</v>
       </c>
@@ -25951,7 +25957,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="821" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A821" s="2" t="s">
         <v>1371</v>
       </c>
@@ -25974,7 +25980,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="822" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A822" s="2" t="s">
         <v>962</v>
       </c>
@@ -25997,7 +26003,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="823" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A823" s="2" t="s">
         <v>1917</v>
       </c>
@@ -26020,7 +26026,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="824" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A824" s="2" t="s">
         <v>1264</v>
       </c>
@@ -26066,7 +26072,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="826" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A826" s="2" t="s">
         <v>694</v>
       </c>
@@ -26112,7 +26118,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="828" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A828" s="2" t="s">
         <v>1193</v>
       </c>
@@ -26135,7 +26141,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="829" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A829" s="2" t="s">
         <v>798</v>
       </c>
@@ -26158,7 +26164,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="830" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A830" s="2" t="s">
         <v>1206</v>
       </c>
@@ -26181,7 +26187,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="831" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A831" s="2" t="s">
         <v>770</v>
       </c>
@@ -26204,7 +26210,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="832" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A832" s="2" t="s">
         <v>1489</v>
       </c>
@@ -26227,7 +26233,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="833" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A833" s="2" t="s">
         <v>1098</v>
       </c>
@@ -26250,7 +26256,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="834" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A834" s="2" t="s">
         <v>665</v>
       </c>
@@ -26273,7 +26279,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="835" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A835" s="2" t="s">
         <v>751</v>
       </c>
@@ -26296,7 +26302,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="836" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A836" s="2" t="s">
         <v>646</v>
       </c>
@@ -26319,7 +26325,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="837" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A837" s="2" t="s">
         <v>1245</v>
       </c>
@@ -26365,7 +26371,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="839" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A839" s="2" t="s">
         <v>1176</v>
       </c>
@@ -26388,7 +26394,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="840" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A840" s="2" t="s">
         <v>1012</v>
       </c>
@@ -26411,7 +26417,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="841" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A841" s="2" t="s">
         <v>946</v>
       </c>
@@ -26434,7 +26440,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="842" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A842" s="2" t="s">
         <v>1027</v>
       </c>
@@ -26457,7 +26463,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="843" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A843" s="2" t="s">
         <v>846</v>
       </c>
@@ -26480,7 +26486,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="844" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A844" s="2" t="s">
         <v>943</v>
       </c>
@@ -26503,7 +26509,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="845" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A845" s="2" t="s">
         <v>1248</v>
       </c>
@@ -26549,7 +26555,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="847" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A847" s="2" t="s">
         <v>636</v>
       </c>
@@ -26618,7 +26624,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="850" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A850" s="2" t="s">
         <v>1202</v>
       </c>
@@ -26664,7 +26670,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="852" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A852" s="2" t="s">
         <v>1159</v>
       </c>
@@ -26687,7 +26693,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="853" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A853" s="2" t="s">
         <v>1053</v>
       </c>
@@ -26710,7 +26716,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="854" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A854" s="2" t="s">
         <v>1146</v>
       </c>
@@ -26756,7 +26762,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="856" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A856" s="2" t="s">
         <v>989</v>
       </c>
@@ -26802,7 +26808,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="858" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A858" s="2" t="s">
         <v>979</v>
       </c>
@@ -26825,7 +26831,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="859" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A859" s="2" t="s">
         <v>1293</v>
       </c>
@@ -26848,7 +26854,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="860" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A860" s="2" t="s">
         <v>775</v>
       </c>
@@ -26871,7 +26877,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="861" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A861" s="2" t="s">
         <v>650</v>
       </c>
@@ -26894,7 +26900,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="862" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A862" s="2" t="s">
         <v>1209</v>
       </c>
@@ -26917,7 +26923,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="863" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A863" s="2" t="s">
         <v>727</v>
       </c>
@@ -26940,7 +26946,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="864" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A864" s="2" t="s">
         <v>648</v>
       </c>
@@ -26986,7 +26992,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="866" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A866" s="2" t="s">
         <v>984</v>
       </c>
@@ -27032,7 +27038,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="868" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A868" s="2" t="s">
         <v>655</v>
       </c>
@@ -27078,7 +27084,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="870" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A870" s="2" t="s">
         <v>1196</v>
       </c>
@@ -27101,7 +27107,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="871" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A871" s="2" t="s">
         <v>827</v>
       </c>
@@ -27124,7 +27130,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="872" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A872" s="2" t="s">
         <v>672</v>
       </c>
@@ -27147,7 +27153,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="873" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A873" s="2" t="s">
         <v>899</v>
       </c>
@@ -27170,7 +27176,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="874" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A874" s="2" t="s">
         <v>913</v>
       </c>
@@ -27193,7 +27199,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="875" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A875" s="2" t="s">
         <v>1003</v>
       </c>
@@ -27216,7 +27222,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="876" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A876" s="2" t="s">
         <v>1111</v>
       </c>
@@ -27262,7 +27268,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="878" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A878" s="2" t="s">
         <v>1276</v>
       </c>
@@ -27285,7 +27291,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="879" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A879" s="2" t="s">
         <v>977</v>
       </c>
